--- a/4 вариант/1 модуль/4 вариант.xlsx
+++ b/4 вариант/1 модуль/4 вариант.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komori\Desktop\дем экз\4 вариант\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#files\Demo-exam\4 вариант\1 модуль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8D0D9-4F26-465F-93A3-C4B731D00C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66A7EB6-C022-4F4D-8DFE-DFCE24D5F22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7350" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Goods" sheetId="1" r:id="rId1"/>
-    <sheet name="Categories" sheetId="2" r:id="rId2"/>
-    <sheet name="User" sheetId="3" r:id="rId3"/>
+    <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Users" sheetId="3" r:id="rId2"/>
+    <sheet name="Categories" sheetId="2" r:id="rId3"/>
     <sheet name="Roles" sheetId="5" r:id="rId4"/>
     <sheet name="Orders" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -289,7 +289,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>GoodID</t>
+    <t>ProductID</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1085,86 +1085,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E247E0-C0BB-4DC0-8ED3-FF63940A8ED8}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE31B2B5-60E8-43AC-89EA-5CDA08C497B0}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,6 +1356,81 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E247E0-C0BB-4DC0-8ED3-FF63940A8ED8}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1489,13 +1489,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
